--- a/システム論理説明/システム処理構成.xlsx
+++ b/システム論理説明/システム処理構成.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/システム論理説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5524F978-1651-9D4D-8454-87A11737F798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD108AB-A598-F740-9F45-D2DD21661B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="システム構成" sheetId="1" r:id="rId1"/>
-    <sheet name="オンライン処理" sheetId="3" r:id="rId2"/>
-    <sheet name="バッチ処理" sheetId="4" r:id="rId3"/>
-    <sheet name="ファイルダウンロード方式" sheetId="5" r:id="rId4"/>
+    <sheet name="システム概要" sheetId="6" r:id="rId1"/>
+    <sheet name="システム構成" sheetId="1" r:id="rId2"/>
+    <sheet name="オンライン処理" sheetId="3" r:id="rId3"/>
+    <sheet name="バッチ処理" sheetId="4" r:id="rId4"/>
+    <sheet name="ファイルダウンロード方式" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>気象データ明細出力_システム処理構成</t>
     <rPh sb="0" eb="2">
@@ -776,12 +777,67 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>気象データ明細出力_システム概要</t>
+    <rPh sb="0" eb="2">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.概要</t>
+  </si>
+  <si>
+    <t>条件で指定した年や地域の「気温」や「湿度」をファイル出力してダウンロードするシステムです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルは、エクセルファイルで出力されます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>47都道府県、約70年分の気象情報をファイル出力することができます。</t>
+    <rPh sb="2" eb="6">
+      <t>トドウフケn</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネn</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>キショウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.システム操作イメージ</t>
+  </si>
+  <si>
+    <t>クライアントは、「Webブラウザ」のみ。</t>
+  </si>
+  <si>
+    <t>下記がメインの業務画面で、この画面で条件を指定して「Go」ボタンを押下すると、ファイル出力処理が開始される。</t>
+  </si>
+  <si>
+    <t>ファイルダウンロードリンクを押下すると、</t>
+  </si>
+  <si>
+    <t>気象データの明細が書き込まれたエクセルファイルをダウンロードすることができる。</t>
+  </si>
+  <si>
+    <t>3.出力ファイルレイアウト例</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -811,6 +867,14 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -871,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -881,6 +945,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -899,6 +967,928 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{193EE40D-4CC8-C74F-A6FE-5D9905FAE216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1346200" y="3292475"/>
+          <a:ext cx="10769600" cy="4962525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="下矢印 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3091E40C-73F6-DA45-9D31-D082AC35D2FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CF953308-495C-BDCD-E623-03FCB6D6100B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5073650" y="8350250"/>
+          <a:ext cx="492125" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E34F24E9-E6D2-7D4A-9955-C785AC1CCDE0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{FDE5DCBC-8D55-E131-BA5C-F13FFDF2C7F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6492875" y="4543425"/>
+          <a:ext cx="1981200" cy="587375"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -46474"/>
+            <a:gd name="adj2" fmla="val 75473"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>Go</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ボタン押下で、ファイル作成処理を開始する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB661380-241B-1C42-8B0F-CF4FB66F7D25}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BBF4241-4907-AAEE-5D28-8ECB12860803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1355724" y="9779000"/>
+          <a:ext cx="10810876" cy="4924425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1294A8B7-0E65-D546-8D36-7F525135A80D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{25C51E91-FE7C-B0AB-9CAA-B3B96F171171}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="12179300"/>
+          <a:ext cx="2911475" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21705"/>
+            <a:gd name="adj2" fmla="val 92863"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ファイル作成開始直後は、ファイル作成ステータスが、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ファイル作成開始前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>」になる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54449962-E567-0F45-88BE-1CB2FE2B75DF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BE3BD80C-6790-40A9-B473-2C336FC50F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5092700" y="14884400"/>
+          <a:ext cx="492125" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15874</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>584199</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375CE1A7-38EE-4A45-A15A-2ECF004A57A2}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F15E2972-14CF-46E2-AFFC-9DB33CE45043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2035174" y="16306800"/>
+          <a:ext cx="6626225" cy="1666875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>269875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>288925</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA822C5A-36EC-A846-880A-3E11067C175A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{014B8866-383B-1F8B-A80B-7EAA7930AA48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="15960725"/>
+          <a:ext cx="4057650" cy="688975"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -37421"/>
+            <a:gd name="adj2" fmla="val 119643"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>バックグラウンドのファイル作成処理が終了すると、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-lt"/>
+              <a:cs typeface="+mn-lt"/>
+            </a:rPr>
+            <a:t>ステータスが「ファイル作成済み」となって、ダウンロードリンクが表示される。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CBC886-5CFB-DE49-BB78-30D4D4002F68}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{47D2CA2F-04CD-4E5D-B7E1-24D3DDE511F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="682625" y="19237325"/>
+          <a:ext cx="6705600" cy="12696825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2151,7 +3141,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2794,7 +3784,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3662,7 +4652,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5399,6 +6389,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F7D51F-5FF9-0049-A3D4-BE219A225C44}">
+  <dimension ref="A1:D84"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="19">
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -5484,7 +6552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14613239-0AFF-A840-9625-1EA23D1CFAB5}">
   <dimension ref="A1:D28"/>
   <sheetViews>
@@ -5557,7 +6625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD6A5E1-43DC-9645-BD19-A608B502712C}">
   <dimension ref="A1:L54"/>
   <sheetViews>
@@ -5705,11 +6773,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A99761-CE5F-4344-9B4A-8379F69AA498}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="125" workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
